--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,23 +75,23 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
@@ -232,7 +232,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Balaraju vankala</t>
+          <t>Vidya Sagar  Pogiri</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -243,64 +243,310 @@
       <c r="E2" s="0"/>
       <c r="F2" s="0" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>33333.333333333336</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>31150.0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>13333.3</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>3333.33</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>14483.3</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>31150.0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>545.12</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>2550.26</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>4695.38</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>26454.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>11-2014</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Balaraju vankala</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>2014-03-03</t>
+        </is>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>46725.0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>21725.0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>46725.0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>817.69</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>7650.8</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>10868.5</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>35856.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>11-2014</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Priyanka Muddana</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>2014-03-03</t>
+        </is>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
           <t>Junior Developer</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>83333.33333333333</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>77875.0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>33333.3</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>8333.33</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>36208.3</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>77875.0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1362.81</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>23051.4</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>28414.2</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>49460.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>11-2014</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>pattabhi ramarao</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2006-11-03</t>
+        </is>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Junior Developer</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>120000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>10000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>9345.0</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="K5" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>4000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>1000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>4345.0</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
+      <c r="P5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>9345.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>480.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>163.54</v>
       </c>
-      <c r="T2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>1281.11</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>1924.65</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>7420.35</v>
+      <c r="T5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>643.54</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>8701.46</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -291,16 +291,16 @@
         <v>0.0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>2550.26</v>
+        <v>1530.15</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>4695.38</v>
+        <v>3675.27</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>26454.6</v>
+        <v>27474.7</v>
       </c>
     </row>
     <row r="3">
@@ -373,16 +373,16 @@
         <v>0.0</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>7650.8</v>
+        <v>2703.12</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>10868.5</v>
+        <v>5920.81</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>35856.5</v>
+        <v>40804.2</v>
       </c>
     </row>
     <row r="4">
@@ -455,16 +455,16 @@
         <v>0.0</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>23051.4</v>
+        <v>13830.8</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>28414.2</v>
+        <v>19193.6</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>49460.8</v>
+        <v>58681.4</v>
       </c>
     </row>
     <row r="5">

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,12 +75,12 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
@@ -91,7 +91,7 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
@@ -232,7 +232,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Vidya Sagar  Pogiri</t>
+          <t>Balaraju vankala</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -243,22 +243,22 @@
       <c r="E2" s="0"/>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Senior Developer</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>400000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>33333.333333333336</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>31150.0</v>
+        <v>38937.5</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
@@ -267,286 +267,40 @@
         <v>30.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>13333.3</v>
+        <v>16666.7</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3333.33</v>
+        <v>4166.67</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>14483.3</v>
+        <v>18104.2</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>31150.0</v>
+        <v>38937.5</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>1600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>545.12</v>
+        <v>681.41</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>1530.15</v>
+        <v>4475.33</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>3675.27</v>
+        <v>7156.74</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>27474.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>11-2014</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Balaraju vankala</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>2014-03-03</t>
-        </is>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>600000.0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>46725.0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>21725.0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>46725.0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>2400.0</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>817.69</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>2703.12</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>5920.81</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>40804.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>11-2014</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Priyanka Muddana</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>2014-03-03</t>
-        </is>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>Junior Developer</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>83333.33333333333</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>77875.0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>33333.3</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>8333.33</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>36208.3</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>77875.0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1362.81</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>13830.8</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>19193.6</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>58681.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>11-2014</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>pattabhi ramarao</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>2006-11-03</t>
-        </is>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Junior Developer</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>9345.0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>4345.0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>9345.0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>480.0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>163.54</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>643.54</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>8701.46</v>
+        <v>31780.8</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -80,21 +80,23 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -165,45 +167,55 @@
       </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
+          <t>HRA</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
           <t>Spcl Allowance</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>Gross Pay</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>ESIC</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>TDS</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Food Coupons </t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>total_deducations</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -244,49 +256,55 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>100000000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>8333333.333333333</v>
+        <v>10000.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>7787500.0</v>
+        <v>9011.67</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3333330.0</v>
+        <v>2666.67</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4454170.0</v>
+        <v>800.0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.0</v>
+        <v>4545.0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>7787500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>400000.0</v>
+        <v>9011.67</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>136281.0</v>
+        <v>320.0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.0</v>
+        <v>157.7</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>536281.0</v>
+        <v>100.0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>7251220.0</v>
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>677.7</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>8333.97</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,10 +75,10 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
@@ -88,12 +88,12 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
@@ -232,18 +232,22 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Balaraju vankala</t>
+          <t>Priyanka Muddana</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>2014-03-03</t>
-        </is>
-      </c>
-      <c r="E2" s="0"/>
+          <t>02/06/2014</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Senior Developer</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -252,13 +256,13 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>500000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>41666.666666666664</v>
+        <v>10000.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>38937.5</v>
+        <v>10345.0</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
@@ -267,40 +271,126 @@
         <v>30.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>16666.7</v>
+        <v>4000.0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4166.67</v>
+        <v>1000.0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>18104.2</v>
+        <v>4345.0</v>
       </c>
       <c r="P2" s="0" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>10345.0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>181.04</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>1066.04</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>9278.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>11-2014</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Vidya Sagar pogiri</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>02/06/2014</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Junior Developer</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>130000.0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10833.333333333334</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10313.3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>4333.33</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1083.33</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>4896.67</v>
+      </c>
+      <c r="P3" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
-        <v>38937.5</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>681.41</v>
-      </c>
-      <c r="T2" s="0" t="n">
+      <c r="Q3" s="0" t="n">
+        <v>10313.3</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>4475.33</v>
-      </c>
-      <c r="V2" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="W2" s="0" t="n">
-        <v>7156.74</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>31780.8</v>
+      <c r="U3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>9793.33</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,28 +75,28 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,17 +232,17 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Priyanka Muddana</t>
+          <t>fgfg fgfgfg</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>New</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
@@ -256,13 +256,13 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>120000.0</v>
+        <v>12.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>10345.0</v>
+        <v>0.93</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
@@ -271,126 +271,40 @@
         <v>30.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>4000.0</v>
+        <v>0.4</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>1000.0</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>4345.0</v>
+        <v>0.43</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>10345.0</v>
+        <v>0.93</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>480.0</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>181.04</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>155.0</v>
+        <v>0.0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>1066.04</v>
+        <v>0.07</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>9278.96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>11-2014</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Vidya Sagar pogiri</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>02/06/2014</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Junior Developer</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>130000.0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10833.333333333334</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>10313.3</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>4333.33</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>1083.33</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>4896.67</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>10313.3</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>520.0</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>520.0</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>9793.33</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -87,16 +87,17 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -172,50 +173,55 @@
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
           <t>Spcl Allowance</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>Gross Pay</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>ESIC</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>TDS</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>Deductible Arrears</t>
         </is>
       </c>
-      <c r="W1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>total_deducations</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -277,22 +283,22 @@
         <v>0.1</v>
       </c>
       <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>0.02</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0.0</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0.0</v>
@@ -301,9 +307,12 @@
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" s="0" t="n">
         <v>0.07</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -75,28 +75,28 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,12 +232,12 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>fgfg fgfgfg</t>
+          <t>Priyanka Muddana</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>2014-03-03</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -256,13 +256,13 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>12.0</v>
+        <v>20000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.93</v>
+        <v>1557.51</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
@@ -271,25 +271,25 @@
         <v>30.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.4</v>
+        <v>666.667</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.1</v>
+        <v>166.67</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.43</v>
+        <v>724.17</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.93</v>
+        <v>1557.51</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>0.05</v>
+        <v>80.0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.02</v>
+        <v>27.26</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0.0</v>
@@ -301,10 +301,10 @@
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>0.07</v>
+        <v>107.26</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>0.86</v>
+        <v>1450.25</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -88,16 +88,17 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="7.489887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -178,50 +179,55 @@
       </c>
       <c r="P1" s="0" t="inlineStr">
         <is>
+          <t>fgfg</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
           <t>Spcl Allowance</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>Gross Pay</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>ESIC</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>TDS</t>
         </is>
       </c>
-      <c r="W1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>Deductible Arrears</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>total_deducations</t>
         </is>
       </c>
-      <c r="Y1" s="0" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -286,22 +292,22 @@
         <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>0.02</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>0.0</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0.0</v>
@@ -310,9 +316,12 @@
         <v>0.0</v>
       </c>
       <c r="X2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
         <v>0.07</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -75,30 +75,30 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.589887640449438"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -174,52 +174,52 @@
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>car</t>
         </is>
       </c>
       <c r="P1" s="0" t="inlineStr">
         <is>
-          <t>fgfg</t>
+          <t>Spcl Allowance</t>
         </is>
       </c>
       <c r="Q1" s="0" t="inlineStr">
         <is>
-          <t>Spcl Allowance</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="R1" s="0" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Gross Pay</t>
         </is>
       </c>
       <c r="S1" s="0" t="inlineStr">
         <is>
-          <t>Gross Pay</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="T1" s="0" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>ESIC</t>
         </is>
       </c>
       <c r="U1" s="0" t="inlineStr">
         <is>
-          <t>ESIC</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="V1" s="0" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>TDS</t>
         </is>
       </c>
       <c r="W1" s="0" t="inlineStr">
         <is>
-          <t>TDS</t>
+          <t>Deductible Arrears</t>
         </is>
       </c>
       <c r="X1" s="0" t="inlineStr">
         <is>
-          <t>Deductible Arrears</t>
+          <t>house</t>
         </is>
       </c>
       <c r="Y1" s="0" t="inlineStr">
@@ -244,22 +244,22 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>fgfg fgfgfg</t>
+          <t>Vidya Sagar  Pogiri</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>2014-03-03</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Regular</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Senior HR Executive</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -268,13 +268,13 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>12.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.93</v>
+        <v>5434.5</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
@@ -283,31 +283,31 @@
         <v>30.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.4</v>
+        <v>400.0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.1</v>
+        <v>100.0</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0</v>
+        <v>434.5</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.43</v>
+        <v>4500.0</v>
       </c>
       <c r="R2" s="0" t="n">
+        <v>5434.5</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="U2" s="0" t="n">
         <v>0.0</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>0.02</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0.0</v>
@@ -316,13 +316,13 @@
         <v>0.0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>0.07</v>
+        <v>143.1</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>0.86</v>
+        <v>5291.4</v>
       </c>
     </row>
   </sheetData>

--- a/public/Payroll/November-2014-payslips.xlsx
+++ b/public/Payroll/November-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,28 +75,31 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -172,50 +175,65 @@
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
+          <t>DA</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>TL Allowance</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
           <t>Spcl Allowance</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>Gross Pay</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>ESIC</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>TDS</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>Deductible Arrears</t>
         </is>
       </c>
-      <c r="W1" s="0" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>Deducted allowance1</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>total_deducations</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="AA1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -237,12 +255,12 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>2014-03-03</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
@@ -256,13 +274,13 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>20000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1666.6666666666667</v>
+        <v>62500.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1557.51</v>
+        <v>58406.2</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>30.0</v>
@@ -271,40 +289,144 @@
         <v>30.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>666.667</v>
+        <v>25000.0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>166.67</v>
+        <v>6250.0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>724.17</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>1557.51</v>
+        <v>27156.2</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>27.26</v>
+        <v>58406.2</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>0.0</v>
+        <v>1022.11</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>107.26</v>
+        <v>13395.0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1450.25</v>
+        <v>0.0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>17417.1</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>40989.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>11-2014</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Vidya Sagar pogiri</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>02/06/2014</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Junior Developer</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>130000.0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10833.333333333334</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10313.3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>4333.33</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1083.33</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>4896.67</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>10313.3</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>9793.33</v>
       </c>
     </row>
   </sheetData>
